--- a/src/test/resources/excel/USSD.xlsx
+++ b/src/test/resources/excel/USSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.gutarra\Documents\mobile-test-mobile-prototype\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5ACA2F-DE4B-4876-A66C-150A3973D776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D25070-3C21-4B70-9238-D59548E790D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" activeTab="1" xr2:uid="{BE7CFDDE-5895-4126-99BF-14994B4FA90C}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="20720" windowHeight="13280" xr2:uid="{BE7CFDDE-5895-4126-99BF-14994B4FA90C}"/>
   </bookViews>
   <sheets>
     <sheet name="device" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>deviceName</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>OPCIONES PARA VER SALDO</t>
+  </si>
+  <si>
+    <t>*144#</t>
+  </si>
+  <si>
+    <t>com.samsung.android.dialer</t>
+  </si>
+  <si>
+    <t>com.samsung.android.dialer.DialtactsActivity</t>
+  </si>
+  <si>
+    <t>4200f8cf6813653f</t>
+  </si>
+  <si>
+    <t>SM-J400M</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6AE033-703C-42E3-AC02-64B3F1B3BDD1}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -465,8 +480,8 @@
     <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -507,6 +522,26 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -519,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7882C4C4-6775-4139-8DC1-EFFFADD4A658}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -551,6 +586,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:3">
       <c r="C4" s="2"/>
     </row>
